--- a/electricity-and-magnetism/3-5-1/data/3-5-1.xlsx
+++ b/electricity-and-magnetism/3-5-1/data/3-5-1.xlsx
@@ -217,7 +217,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +250,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -794,7 +797,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -806,7 +809,7 @@
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="18.28125"/>
     <col customWidth="1" min="2" max="2" width="18.140625"/>
@@ -967,7 +970,7 @@
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -975,7 +978,7 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -993,475 +996,692 @@
         <v>3</v>
       </c>
       <c r="B1" s="11"/>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="11"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="16">
+      <c r="A3" s="17">
         <v>25</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="18">
         <v>103</v>
       </c>
-      <c r="C3" s="16">
+      <c r="C3" s="17">
         <v>25</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="18">
         <v>55</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="17">
         <v>25</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="18">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="16">
+      <c r="A4" s="17">
         <v>22</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="18">
         <v>100</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="17">
         <v>22</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="18">
         <v>54</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="17">
         <v>22</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="18">
         <v>26</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="16">
+      <c r="A5" s="17">
         <v>19</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="18">
         <v>98</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="17">
         <v>19</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="18">
         <v>52</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="17">
         <v>19</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="18">
         <v>25</v>
       </c>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="16">
+      <c r="A6" s="17">
         <v>16</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="18">
         <v>95</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="17">
         <v>16</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="18">
         <v>50</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="17">
         <v>16</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="18">
         <v>24</v>
       </c>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="16">
+      <c r="A7" s="17">
         <v>13</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="18">
         <v>91</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="17">
         <v>13</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="18">
         <v>48</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="17">
         <v>13</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="18">
         <v>23</v>
       </c>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="16">
+      <c r="A8" s="17">
         <v>10</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="18">
         <v>82</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="17">
         <v>10</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="18">
         <v>45</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="17">
         <v>10</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="18">
         <v>21</v>
       </c>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="16">
+      <c r="A9" s="17">
         <v>8</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="18">
         <v>74</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="17">
         <v>8</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="18">
         <v>40</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="17">
         <v>8</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="18">
         <v>19</v>
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="16">
+      <c r="A10" s="17">
         <v>6</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="18">
         <v>62</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="17">
         <v>6</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="18">
         <v>34</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="17">
         <v>6</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="18">
         <v>16</v>
       </c>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="16">
+      <c r="A11" s="17">
         <v>4</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="18">
         <v>49</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="17">
         <v>4</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="18">
         <v>26</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="17">
         <v>4</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="16">
+      <c r="A12" s="17">
         <v>2</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="18">
         <v>31</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="17">
         <v>2</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="18">
         <v>14</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="17">
         <v>2</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="18">
         <v>6.5</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="16">
+      <c r="A13" s="17">
         <v>0.59999999999999998</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="18">
         <v>18</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="17">
         <v>0.59999999999999998</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="18">
         <v>6</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="17">
         <v>0.59999999999999998</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="16">
+      <c r="A14" s="17">
         <v>-0.59999999999999998</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="18">
         <v>17</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="17">
         <v>-0.59999999999999998</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="18">
         <v>4</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="17">
         <v>-0.59999999999999998</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="16">
+      <c r="A15" s="17">
         <v>-2</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="18">
         <v>29</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="17">
         <v>-2</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="18">
         <v>13</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="17">
         <v>-2</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="18">
         <v>6</v>
       </c>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="16">
+      <c r="A16" s="17">
         <v>-4</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="18">
         <v>49</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="17">
         <v>-4</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="18">
         <v>24</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="17">
         <v>-4</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="18">
         <v>12</v>
       </c>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="16">
+      <c r="A17" s="17">
         <v>-6</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="18">
         <v>63</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="17">
         <v>-6</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="18">
         <v>34</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="17">
         <v>-6</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="18">
         <v>16</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="16">
+      <c r="A18" s="17">
         <v>-8</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="18">
         <v>75</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="17">
         <v>-8</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="18">
         <v>41</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="17">
         <v>-8</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <v>19</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="16">
+      <c r="A19" s="17">
         <v>-10</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="18">
         <v>85</v>
       </c>
-      <c r="C19" s="16">
+      <c r="C19" s="17">
         <v>-10</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="18">
         <v>47</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="17">
         <v>-10</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="18">
         <v>22</v>
       </c>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="16">
+      <c r="A20" s="17">
         <v>-13</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="18">
         <v>94</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="17">
         <v>-13</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="18">
         <v>50</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="17">
         <v>-13</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="18">
         <v>24</v>
       </c>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="16">
+      <c r="A21" s="17">
         <v>-16</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="18">
         <v>100</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="17">
         <v>-16</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="18">
         <v>53</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="17">
         <v>-16</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="18">
         <v>25</v>
       </c>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="16">
+      <c r="A22" s="17">
         <v>-19</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="18">
         <v>103</v>
       </c>
-      <c r="C22" s="16">
+      <c r="C22" s="17">
         <v>-19</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="18">
         <v>55</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="17">
         <v>-19</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="18">
         <v>26</v>
       </c>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="16">
+      <c r="A23" s="17">
         <v>-22</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B23" s="18">
         <v>106</v>
       </c>
-      <c r="C23" s="16">
+      <c r="C23" s="17">
         <v>-22</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="18">
         <v>56</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="17">
         <v>-22</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="18">
         <v>27</v>
       </c>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="18">
+      <c r="A24" s="19">
         <v>-25</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="20">
         <v>109</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="19">
         <v>-25</v>
       </c>
-      <c r="D24" s="19">
+      <c r="D24" s="20">
         <v>58</v>
       </c>
-      <c r="E24" s="18">
+      <c r="E24" s="19">
         <v>-25</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="20">
         <v>28</v>
       </c>
     </row>
+    <row r="28" ht="14.25">
+      <c r="A28">
+        <f>A3</f>
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <f>B3</f>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" ht="14.25">
+      <c r="A29">
+        <f>A4</f>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <f>B4</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" ht="14.25">
+      <c r="A30">
+        <f>A5</f>
+        <v>19</v>
+      </c>
+      <c r="B30">
+        <f>B5</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25">
+      <c r="A31">
+        <f>A6</f>
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <f>B6</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" ht="14.25">
+      <c r="A32">
+        <f>A7</f>
+        <v>13</v>
+      </c>
+      <c r="B32">
+        <f>B7</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" ht="14.25">
+      <c r="A33">
+        <f>A8</f>
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <f>B8</f>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" ht="14.25">
+      <c r="A34">
+        <f>A9</f>
+        <v>8</v>
+      </c>
+      <c r="B34">
+        <f>B9</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" ht="14.25">
+      <c r="A35">
+        <f>A10</f>
+        <v>6</v>
+      </c>
+      <c r="B35">
+        <f>B10</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" ht="14.25">
+      <c r="A36">
+        <f>A11</f>
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <f>B11</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" ht="14.25">
+      <c r="A37">
+        <f>A12</f>
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <f>B12</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" ht="14.25">
+      <c r="A38">
+        <f>A13</f>
+        <v>0.59999999999999998</v>
+      </c>
+      <c r="B38">
+        <f>B13</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" ht="14.25">
+      <c r="A39">
+        <f>A14</f>
+        <v>-0.59999999999999998</v>
+      </c>
+      <c r="B39">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="40" ht="14.25">
+      <c r="A40">
+        <f>A15</f>
+        <v>-2</v>
+      </c>
+      <c r="B40">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="41" ht="14.25">
+      <c r="A41">
+        <f>A16</f>
+        <v>-4</v>
+      </c>
+      <c r="B41">
+        <v>-49</v>
+      </c>
+    </row>
+    <row r="42" ht="14.25">
+      <c r="A42">
+        <f>A17</f>
+        <v>-6</v>
+      </c>
+      <c r="B42">
+        <v>-63</v>
+      </c>
+    </row>
+    <row r="43" ht="14.25">
+      <c r="A43">
+        <f>A18</f>
+        <v>-8</v>
+      </c>
+      <c r="B43">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="44" ht="14.25">
+      <c r="A44">
+        <f>A19</f>
+        <v>-10</v>
+      </c>
+      <c r="B44">
+        <v>-85</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25">
+      <c r="A45">
+        <f>A20</f>
+        <v>-13</v>
+      </c>
+      <c r="B45">
+        <v>-94</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25">
+      <c r="A46">
+        <f>A21</f>
+        <v>-16</v>
+      </c>
+      <c r="B46">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25">
+      <c r="A47">
+        <f>A22</f>
+        <v>-19</v>
+      </c>
+      <c r="B47">
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="48" ht="14.25">
+      <c r="A48">
+        <f>A23</f>
+        <v>-22</v>
+      </c>
+      <c r="B48">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="49" ht="14.25">
+      <c r="A49">
+        <f>A24</f>
+        <v>-25</v>
+      </c>
+      <c r="B49">
+        <v>-109</v>
+      </c>
+    </row>
+    <row r="50" ht="14.25"/>
+    <row r="51" ht="14.25"/>
+    <row r="52" ht="14.25"/>
+    <row r="53" ht="14.25"/>
+    <row r="54" ht="14.25"/>
+    <row r="55" ht="14.25"/>
+    <row r="56" ht="14.25"/>
+    <row r="57" ht="14.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
@@ -1470,7 +1690,7 @@
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>